--- a/src/XlsxCompare.Tests/right.xlsx
+++ b/src/XlsxCompare.Tests/right.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\home\rdavis\projects\XlsxCompare\src\XlsxCompare.Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565BAB2C-7F2A-48ED-B937-E0BF06D0ADE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D55D9-0147-4116-A988-9C6CE6F48275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{4E9CC7C5-0FCF-48CB-8EB0-0CACF454BF10}"/>
+    <workbookView xWindow="34095" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{4E9CC7C5-0FCF-48CB-8EB0-0CACF454BF10}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA DUMP" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>test</t>
+  </si>
   <si>
     <t>test name</t>
   </si>
   <si>
-    <t>test addy</t>
-  </si>
-  <si>
     <t>foo@example.com</t>
   </si>
   <si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>bar</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -432,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFB04E4-24B2-4ECF-8936-D2F36234DD41}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,9 +455,9 @@
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -457,47 +469,68 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>1000</v>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1234</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1234</v>
-      </c>
-      <c r="E3">
-        <v>1001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
